--- a/group-reports/tables/shahriar-1-2-tests-results-after-queue-test-5.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results-after-queue-test-5.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -707,32 +707,32 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36 msec</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>2512 msec</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>1275.67</t>
+          <t>1275.67 msec</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1551 usec</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>792580</t>
+          <t>792580 usec</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>8291.10</t>
+          <t>8291.10 usec</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -829,32 +829,32 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>573 usec</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>6240.5k</t>
+          <t>6240.5k usec</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>712351.34</t>
+          <t>712351.34 usec</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6 msec</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>7324</t>
+          <t>7324 msec</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>1911.77</t>
+          <t>1911.77 msec</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>137 msec</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>2489 msec</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>1278.60</t>
+          <t>1278.60 msec</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1551 usec</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>742981</t>
+          <t>742981 usec</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>15352.90</t>
+          <t>15352.90 usec</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1073,32 +1073,32 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>62 msec</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>2487 msec</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>1273.72</t>
+          <t>1273.72 msec</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>1571</t>
+          <t>1571 usec</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>2643.4k</t>
+          <t>2643.4k usec</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>13191.98</t>
+          <t>13191.98 usec</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1195,32 +1195,32 @@
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>674 usec</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>5762.5k</t>
+          <t>5762.5k usec</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>718989.64</t>
+          <t>718989.64 usec</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4 msec</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>7057</t>
+          <t>7057 msec</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>1977.06</t>
+          <t>1977.06 msec</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1317,32 +1317,32 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>509 usec</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>6676.5k</t>
+          <t>6676.5k usec</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>1177143.12</t>
+          <t>1177143.12 usec</t>
         </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1600 usec</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>8935.7k</t>
+          <t>8935.7k usec</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>320754.56</t>
+          <t>320754.56 usec</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1439,32 +1439,32 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73 msec</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>3692 msec</t>
         </is>
       </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
-          <t>1275.65</t>
+          <t>1275.65 msec</t>
         </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>1670 usec</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>2133.3k</t>
+          <t>2133.3k usec</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>8158.71</t>
+          <t>8158.71 usec</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1561,32 +1561,32 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42 msec</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>2841 msec</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr">
         <is>
-          <t>1274.31</t>
+          <t>1274.31 msec</t>
         </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>1539 usec</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>3520.8k</t>
+          <t>3520.8k usec</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>11553.72</t>
+          <t>11553.72 usec</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1465 usec</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
-          <t>2500.5k</t>
+          <t>2500.5k usec</t>
         </is>
       </c>
       <c r="N11" s="1" t="inlineStr">
         <is>
-          <t>1276470.46</t>
+          <t>1276470.46 usec</t>
         </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>1751 usec</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>809861</t>
+          <t>809861 usec</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>5831.83</t>
+          <t>5831.83 usec</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1805,32 +1805,32 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14 msec</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2501 msec</t>
         </is>
       </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
-          <t>1266.79</t>
+          <t>1266.79 msec</t>
         </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3 msec</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>2934 msec</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>29.07</t>
+          <t>29.07 msec</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1927,32 +1927,32 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1089 usec</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr">
         <is>
-          <t>7131.7k</t>
+          <t>7131.7k usec</t>
         </is>
       </c>
       <c r="N13" s="1" t="inlineStr">
         <is>
-          <t>1236958.88</t>
+          <t>1236958.88 usec</t>
         </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1981 usec</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>6948.7k</t>
+          <t>6948.7k usec</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>129147.26</t>
+          <t>129147.26 usec</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2049,32 +2049,32 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2478 msec</t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
         <is>
-          <t>1268.21</t>
+          <t>1268.21 msec</t>
         </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>2268</t>
+          <t>2268 msec</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>25.49</t>
+          <t>25.49 msec</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2171,32 +2171,32 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>389 usec</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t>7265.7k</t>
+          <t>7265.7k usec</t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
         <is>
-          <t>767085.18</t>
+          <t>767085.18 usec</t>
         </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>67 msec</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>11134</t>
+          <t>11134 msec</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>2012.19</t>
+          <t>2012.19 msec</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2293,32 +2293,32 @@
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>530 usec</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr">
         <is>
-          <t>4971.4k</t>
+          <t>4971.4k usec</t>
         </is>
       </c>
       <c r="N16" s="1" t="inlineStr">
         <is>
-          <t>1014886.69</t>
+          <t>1014886.69 usec</t>
         </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1995 usec</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>6763.5k</t>
+          <t>6763.5k usec</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>896051.34</t>
+          <t>896051.34 usec</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2415,32 +2415,32 @@
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4 msec</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>2411 msec</t>
         </is>
       </c>
       <c r="N17" s="1" t="inlineStr">
         <is>
-          <t>1271.97</t>
+          <t>1271.97 msec</t>
         </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1896 usec</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>539134</t>
+          <t>539134 usec</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>16425.04</t>
+          <t>16425.04 usec</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2537,32 +2537,32 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13 msec</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>2483 msec</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t>1273.62</t>
+          <t>1273.62 msec</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1988 usec</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>403324</t>
+          <t>403324 usec</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>12891.88</t>
+          <t>12891.88 usec</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2659,32 +2659,32 @@
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>83 msec</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>2869 msec</t>
         </is>
       </c>
       <c r="N19" s="1" t="inlineStr">
         <is>
-          <t>1239.34</t>
+          <t>1239.34 msec</t>
         </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>1543 usec</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>2605.4k</t>
+          <t>2605.4k usec</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>105534.63</t>
+          <t>105534.63 usec</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18 msec</t>
         </is>
       </c>
       <c r="M20" s="1" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>2658 msec</t>
         </is>
       </c>
       <c r="N20" s="1" t="inlineStr">
         <is>
-          <t>1271.04</t>
+          <t>1271.04 msec</t>
         </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1607 msec</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>18.81</t>
+          <t>18.81 msec</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2903,32 +2903,32 @@
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>473 usec</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr">
         <is>
-          <t>4799.7k</t>
+          <t>4799.7k usec</t>
         </is>
       </c>
       <c r="N21" s="1" t="inlineStr">
         <is>
-          <t>698876.00</t>
+          <t>698876.00 usec</t>
         </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5 msec</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>6276</t>
+          <t>6276 msec</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>1916.08</t>
+          <t>1916.08 msec</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3025,32 +3025,32 @@
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>221 msec</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>2752 msec</t>
         </is>
       </c>
       <c r="N22" s="1" t="inlineStr">
         <is>
-          <t>1228.37</t>
+          <t>1228.37 msec</t>
         </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1587 usec</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>2289.2k</t>
+          <t>2289.2k usec</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>130489.14</t>
+          <t>130489.14 usec</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3147,32 +3147,32 @@
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29 msec</t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2495 msec</t>
         </is>
       </c>
       <c r="N23" s="1" t="inlineStr">
         <is>
-          <t>1272.51</t>
+          <t>1272.51 msec</t>
         </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1959 usec</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>380513</t>
+          <t>380513 usec</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>15297.58</t>
+          <t>15297.58 usec</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
